--- a/Documentation/Pokemon_learnset_rebalance/114_Tangela.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/114_Tangela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1ADD8-069D-4ABC-AF72-A2D551A7E72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9D586-E8F9-4AC4-AC05-25B3730CE939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9590" yWindow="1560" windowWidth="9740" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>Stun Spore</t>
   </si>
   <si>
-    <t>Wrap</t>
-  </si>
-  <si>
     <t>Cotton Spore</t>
   </si>
   <si>
@@ -393,13 +390,16 @@
     <t>Slam</t>
   </si>
   <si>
-    <t>Seed Bomb</t>
-  </si>
-  <si>
-    <t>Bullet Seed</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Grass Knot</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>Protect</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -871,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -902,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -916,7 +916,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -925,7 +925,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -933,7 +933,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -947,7 +947,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -972,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.35">
@@ -1026,7 +1026,7 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.35">
@@ -1048,7 +1048,7 @@
         <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.35">
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.35">
